--- a/data/trans_dic/P32E$bar_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -986,7 +986,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.805775426159182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7258300068839665</v>
+        <v>0.7258300068839663</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4639361651948166</v>
+        <v>0.4566171146481603</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4067534375300901</v>
+        <v>0.4219779525654006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5232004158532468</v>
+        <v>0.5239248544080465</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8737889288429919</v>
+        <v>0.8729629160332443</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8690451354312937</v>
+        <v>0.8744533284220537</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.4929675981362386</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.735515853075294</v>
+        <v>0.7355158530752939</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6059956545753437</v>
+        <v>0.6059956545753438</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2485997709335591</v>
+        <v>0.2395348141544167</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4963681109522555</v>
+        <v>0.4848834991663915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.411543819554224</v>
+        <v>0.415951978625235</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7308012498348562</v>
+        <v>0.7204130265164188</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9073966116224172</v>
+        <v>0.9056060365520926</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7588700938409854</v>
+        <v>0.7562148419792756</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.797371478779251</v>
+        <v>0.7973714787792509</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.565255248460115</v>
+        <v>0.5652552484601149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7741877147780286</v>
+        <v>0.7741877147780288</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6231979256934805</v>
+        <v>0.6349675582126435</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.155162762929645</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6089978396518664</v>
+        <v>0.6073343195403041</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9163968453053833</v>
+        <v>0.9174714465931498</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8918156089577597</v>
+        <v>0.8965457424655058</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.7981368027343595</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7201611425533074</v>
+        <v>0.7201611425533073</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5498886527376059</v>
+        <v>0.5401911347635948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5343314831445811</v>
+        <v>0.5536788247374419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5905582468615662</v>
+        <v>0.5794723111912351</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.834131041536376</v>
+        <v>0.82637449156743</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9503730077643917</v>
+        <v>0.950132780431354</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8326384968158371</v>
+        <v>0.8279143170417659</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.6057864058376221</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5656128744155879</v>
+        <v>0.5656128744155881</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.348265451228465</v>
+        <v>0.3584173493843819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3175429245338164</v>
+        <v>0.3054022867132692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3995256588279907</v>
+        <v>0.3770190646320832</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7330137993738181</v>
+        <v>0.7384927464993273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8518269271970889</v>
+        <v>0.8502705199628252</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7317192906418148</v>
+        <v>0.7247871677043473</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6284262830942534</v>
+        <v>0.6284262830942535</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.7974850501938914</v>
+        <v>0.7974850501938915</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.7451007481578398</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4357946501348918</v>
+        <v>0.4291482998780952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4239330284504781</v>
+        <v>0.4657758797354054</v>
       </c>
     </row>
     <row r="21">
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9254485980160889</v>
+        <v>0.9361925190096115</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6569190130051757</v>
+        <v>0.6569190130051756</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.7442194905468582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6810496644262002</v>
+        <v>0.6810496644262004</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5706172974168537</v>
+        <v>0.573318806121787</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6311958275687244</v>
+        <v>0.6285920677375059</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6097716412961152</v>
+        <v>0.6120868036465591</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7318485290878479</v>
+        <v>0.734283842467808</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8422702039985438</v>
+        <v>0.8416032342740727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7476940306482402</v>
+        <v>0.74626679953937</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9481</v>
+        <v>9331</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2635</v>
+        <v>2734</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14080</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17856</v>
+        <v>17839</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>6478</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23388</v>
+        <v>23533</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3811</v>
+        <v>3672</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6640</v>
+        <v>6486</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11814</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11202</v>
+        <v>11043</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12138</v>
+        <v>12114</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21784</v>
+        <v>21708</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19922</v>
+        <v>20298</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21628</v>
+        <v>21569</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29294</v>
+        <v>29329</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>3547</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31672</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22992</v>
+        <v>22587</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7929</v>
+        <v>8217</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33457</v>
+        <v>32829</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>34878</v>
+        <v>34553</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14104</v>
+        <v>14100</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47171</v>
+        <v>46904</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14652</v>
+        <v>15079</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2683</v>
+        <v>2580</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20184</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30839</v>
+        <v>31069</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7196</v>
+        <v>7183</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36966</v>
+        <v>36616</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5905</v>
+        <v>5815</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8324</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="27">
@@ -1461,7 +1461,7 @@
         <v>13550</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18170</v>
+        <v>18381</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>89986</v>
+        <v>90412</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>38023</v>
+        <v>37866</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>132893</v>
+        <v>133398</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>115412</v>
+        <v>115796</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>50738</v>
+        <v>50698</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>162952</v>
+        <v>162641</v>
       </c>
     </row>
     <row r="32">
